--- a/Data_Driven/Login/SecB_login_data.xlsx
+++ b/Data_Driven/Login/SecB_login_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,13 +30,6 @@
       <color rgb="FF000000"/>
       <sz val="13"/>
     </font>
-    <font>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="13"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -47,8 +40,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF5b9bd5"/>
       </patternFill>
     </fill>
   </fills>
@@ -92,17 +84,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -185,10 +182,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -226,71 +223,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -318,7 +315,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -341,11 +338,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -354,13 +351,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -370,7 +367,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -379,7 +376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -388,7 +385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -396,10 +393,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -472,186 +469,186 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.26953125" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="22.453125" customWidth="1" style="3" min="2" max="2"/>
-    <col width="16.7265625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="21.26953125" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="22.43357142857143" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="16.71928571428571" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Username</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" s="3">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>quoc.le1804</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>baoquoc1804</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>son.cuthanh27</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>02072002</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" s="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>quoc1234</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>son.cuthanh27</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>192138b</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>InvalidAccount</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" s="3">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>820283gh</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>MissedUsername</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1" s="3">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>quoc2002</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>quoc12345</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>son.cuthanh272</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>son.cuthanh27</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>InvalidAccount</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" s="3">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>quoc.le12345</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>son.cuthanh123</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>MissedPwd</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1" s="3">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>quoc182002</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>son.cuthanh27</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>MissedPwd</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1" s="3">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>quoc05111</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>son.cuthanh27</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>MissedUsername</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="21.75" customHeight="1" s="3">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="21.75" customHeight="1">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>MissedUsrPwd</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -659,6 +656,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>